--- a/New libraries/pandas_test.xlsx
+++ b/New libraries/pandas_test.xlsx
@@ -402,7 +402,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -410,7 +410,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -418,7 +418,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -426,7 +426,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -434,7 +434,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
